--- a/trend_results/Rivers/MangarangioraatOrmondvilleTeUriRd_6a973204a4.xlsx
+++ b/trend_results/Rivers/MangarangioraatOrmondvilleTeUriRd_6a973204a4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="57">
   <si>
     <t>site name</t>
   </si>
@@ -124,9 +124,6 @@
     <t>Turbidity</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
@@ -139,31 +136,25 @@
     <t>Impact</t>
   </si>
   <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely increasing</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
   </si>
   <si>
     <t>Very likely improving</t>
@@ -551,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,7 +627,7 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -645,37 +636,37 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.480460590295474</v>
+        <v>0.98514454605008</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.666666666666667</v>
+        <v>0.493333333333333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.0869642857142857</v>
       </c>
       <c r="L2">
-        <v>-0.172531996769751</v>
+        <v>0.0076871739395556</v>
       </c>
       <c r="M2">
-        <v>0.226680775166312</v>
+        <v>0.16831797235023</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>4.83134920634921</v>
       </c>
       <c r="O2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" t="s">
         <v>40</v>
-      </c>
-      <c r="P2" t="s">
-        <v>41</v>
       </c>
       <c r="Q2">
         <v>1878753.35</v>
@@ -684,19 +675,19 @@
         <v>5554251.07</v>
       </c>
       <c r="S2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" t="s">
         <v>51</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>52</v>
-      </c>
-      <c r="U2" t="s">
-        <v>53</v>
-      </c>
-      <c r="V2" t="s">
-        <v>54</v>
-      </c>
-      <c r="W2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -707,46 +698,46 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>0.383733986980362</v>
+        <v>0.75164973300439</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.9655172413793101</v>
+        <v>0.867924528301887</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.66</v>
+        <v>10.385</v>
       </c>
       <c r="K3">
-        <v>-0.017524087754351</v>
+        <v>0.0370618848529979</v>
       </c>
       <c r="L3">
-        <v>-0.13010975708786</v>
+        <v>-0.0237426125952215</v>
       </c>
       <c r="M3">
-        <v>0.128924343441147</v>
+        <v>0.0809880488489837</v>
       </c>
       <c r="N3">
-        <v>-0.164391067113987</v>
+        <v>0.356879006769358</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q3">
         <v>1878753.35</v>
@@ -755,19 +746,19 @@
         <v>5554251.07</v>
       </c>
       <c r="S3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V3" t="s">
         <v>51</v>
       </c>
-      <c r="T3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>53</v>
-      </c>
-      <c r="V3" t="s">
-        <v>54</v>
-      </c>
-      <c r="W3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -778,46 +769,46 @@
         <v>26</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4">
-        <v>0.979698570631816</v>
+        <v>0.998915925474046</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.576271186440678</v>
+        <v>0.467289719626168</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.032</v>
+        <v>0.034</v>
       </c>
       <c r="K4">
-        <v>-0.0020068681318681</v>
+        <v>-0.0012216101495932</v>
       </c>
       <c r="L4">
-        <v>-0.0035694219010184</v>
+        <v>-0.0021976074392949</v>
       </c>
       <c r="M4">
-        <v>-0.0004568893523593</v>
+        <v>-0.0004994580138335</v>
       </c>
       <c r="N4">
-        <v>-6.27146291208791</v>
+        <v>-3.59297102821552</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q4">
         <v>1878753.35</v>
@@ -826,19 +817,19 @@
         <v>5554251.07</v>
       </c>
       <c r="S4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" t="s">
         <v>51</v>
       </c>
-      <c r="T4" t="s">
-        <v>52</v>
-      </c>
-      <c r="U4" t="s">
-        <v>53</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>54</v>
-      </c>
-      <c r="W4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -849,46 +840,46 @@
         <v>27</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>0.0213819365745578</v>
+        <v>0.10002916817847</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.847457627118644</v>
+        <v>0.710280373831776</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="K5">
-        <v>31.0507097069597</v>
+        <v>10.0343406593407</v>
       </c>
       <c r="L5">
-        <v>4.88667801125553</v>
+        <v>-2.77659734198856</v>
       </c>
       <c r="M5">
-        <v>71.0105134699666</v>
+        <v>19.9866996735071</v>
       </c>
       <c r="N5">
-        <v>13.5003085682434</v>
+        <v>3.8593617920541</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q5">
         <v>1878753.35</v>
@@ -897,19 +888,19 @@
         <v>5554251.07</v>
       </c>
       <c r="S5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V5" t="s">
         <v>51</v>
       </c>
-      <c r="T5" t="s">
-        <v>52</v>
-      </c>
-      <c r="U5" t="s">
-        <v>53</v>
-      </c>
-      <c r="V5" t="s">
-        <v>54</v>
-      </c>
       <c r="W5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -920,25 +911,25 @@
         <v>28</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6">
-        <v>0.364648828408537</v>
+        <v>0.158042766565007</v>
       </c>
       <c r="G6">
-        <v>0.7037037037037041</v>
+        <v>0.75</v>
       </c>
       <c r="H6">
-        <v>0.37037037037037</v>
+        <v>0.32</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J6">
         <v>0.005</v>
@@ -956,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q6">
         <v>1878753.35</v>
@@ -968,19 +959,19 @@
         <v>5554251.07</v>
       </c>
       <c r="S6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" t="s">
         <v>51</v>
       </c>
-      <c r="T6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U6" t="s">
-        <v>53</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>54</v>
-      </c>
-      <c r="W6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -991,22 +982,22 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7">
-        <v>0.999361367819134</v>
+        <v>0.998069208093448</v>
       </c>
       <c r="G7">
-        <v>0.169491525423729</v>
+        <v>0.177570093457944</v>
       </c>
       <c r="H7">
-        <v>0.186440677966102</v>
+        <v>0.158878504672897</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1015,22 +1006,22 @@
         <v>0.004</v>
       </c>
       <c r="K7">
-        <v>-0.0006911069063386</v>
+        <v>-0.0002508585164835</v>
       </c>
       <c r="L7">
-        <v>-0.0010870535714285</v>
+        <v>-0.0005017170329669999</v>
       </c>
       <c r="M7">
-        <v>-0.0002613015486441</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>-17.2776726584674</v>
+        <v>-6.27146291208791</v>
       </c>
       <c r="O7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q7">
         <v>1878753.35</v>
@@ -1039,19 +1030,19 @@
         <v>5554251.07</v>
       </c>
       <c r="S7" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V7" t="s">
         <v>51</v>
       </c>
-      <c r="T7" t="s">
-        <v>52</v>
-      </c>
-      <c r="U7" t="s">
-        <v>53</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>54</v>
-      </c>
-      <c r="W7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1062,46 +1053,46 @@
         <v>30</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8">
-        <v>0.213639453085988</v>
+        <v>0.687277072290826</v>
       </c>
       <c r="G8">
-        <v>0.0508474576271186</v>
+        <v>0.0560747663551402</v>
       </c>
       <c r="H8">
-        <v>0.932203389830508</v>
+        <v>0.906542056074766</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.484</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="K8">
-        <v>0.018530444995384</v>
+        <v>-0.0036586062906252</v>
       </c>
       <c r="L8">
-        <v>-0.029205194196136</v>
+        <v>-0.0219824976634816</v>
       </c>
       <c r="M8">
-        <v>0.091385195967149</v>
+        <v>0.0070001095088754</v>
       </c>
       <c r="N8">
-        <v>3.82860433788926</v>
+        <v>-0.655664209789468</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q8">
         <v>1878753.35</v>
@@ -1110,19 +1101,19 @@
         <v>5554251.07</v>
       </c>
       <c r="S8" t="s">
+        <v>48</v>
+      </c>
+      <c r="T8" t="s">
+        <v>49</v>
+      </c>
+      <c r="U8" t="s">
+        <v>50</v>
+      </c>
+      <c r="V8" t="s">
         <v>51</v>
       </c>
-      <c r="T8" t="s">
-        <v>52</v>
-      </c>
-      <c r="U8" t="s">
-        <v>53</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>54</v>
-      </c>
-      <c r="W8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1133,46 +1124,46 @@
         <v>31</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>0.08209786784306999</v>
+        <v>0.6175725524454</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.789473684210526</v>
+        <v>0.676190476190476</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.82</v>
+        <v>7.8</v>
       </c>
       <c r="K9">
-        <v>-0.0392040610599077</v>
+        <v>0.0030743882332522</v>
       </c>
       <c r="L9">
-        <v>-0.0866677899521988</v>
+        <v>-0.012934335247232</v>
       </c>
       <c r="M9">
-        <v>0.0058456376391279</v>
+        <v>0.0194449941607963</v>
       </c>
       <c r="N9">
-        <v>-0.501330704090892</v>
+        <v>0.0394152337596446</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q9">
         <v>1878753.35</v>
@@ -1181,16 +1172,16 @@
         <v>5554251.07</v>
       </c>
       <c r="S9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T9" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V9" t="s">
         <v>51</v>
-      </c>
-      <c r="T9" t="s">
-        <v>52</v>
-      </c>
-      <c r="U9" t="s">
-        <v>53</v>
-      </c>
-      <c r="V9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1201,43 +1192,43 @@
         <v>32</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>0.213639453085988</v>
+        <v>0.631473028418675</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0186915887850467</v>
       </c>
       <c r="H10">
-        <v>0.9830508474576271</v>
+        <v>0.953271028037383</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0.503</v>
+        <v>0.569</v>
       </c>
       <c r="K10">
-        <v>0.0207495506332614</v>
+        <v>-0.0030342025674397</v>
       </c>
       <c r="L10">
-        <v>-0.0245852635567898</v>
+        <v>-0.0220594416377911</v>
       </c>
       <c r="M10">
-        <v>0.0910165739136491</v>
+        <v>0.0082859665925793</v>
       </c>
       <c r="N10">
-        <v>4.12515917162255</v>
+        <v>-0.533251769321577</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s">
         <v>46</v>
@@ -1249,19 +1240,19 @@
         <v>5554251.07</v>
       </c>
       <c r="S10" t="s">
+        <v>48</v>
+      </c>
+      <c r="T10" t="s">
+        <v>49</v>
+      </c>
+      <c r="U10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V10" t="s">
         <v>51</v>
       </c>
-      <c r="T10" t="s">
-        <v>52</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="W10" t="s">
         <v>53</v>
-      </c>
-      <c r="V10" t="s">
-        <v>54</v>
-      </c>
-      <c r="W10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1272,46 +1263,46 @@
         <v>33</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11">
-        <v>0.213639453085988</v>
+        <v>0.9100650878865399</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.864406779661017</v>
+        <v>0.738317757009346</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="K11">
-        <v>0.0567872778143516</v>
+        <v>-0.0166439247704128</v>
       </c>
       <c r="L11">
-        <v>-0.0358399516775792</v>
+        <v>-0.0371571843648971</v>
       </c>
       <c r="M11">
-        <v>0.09711761576851879</v>
+        <v>0.0033443921334578</v>
       </c>
       <c r="N11">
-        <v>7.28042023260917</v>
+        <v>-2.02974692322108</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q11">
         <v>1878753.35</v>
@@ -1320,19 +1311,19 @@
         <v>5554251.07</v>
       </c>
       <c r="S11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T11" t="s">
+        <v>49</v>
+      </c>
+      <c r="U11" t="s">
+        <v>50</v>
+      </c>
+      <c r="V11" t="s">
         <v>51</v>
       </c>
-      <c r="T11" t="s">
-        <v>52</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="W11" t="s">
         <v>53</v>
-      </c>
-      <c r="V11" t="s">
-        <v>54</v>
-      </c>
-      <c r="W11" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1343,7 +1334,7 @@
         <v>34</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -1352,37 +1343,37 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.489558532924489</v>
+        <v>0.817946795336137</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.677966101694915</v>
+        <v>0.504672897196262</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.052</v>
+        <v>0.055</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>-0.0007051158301158</v>
       </c>
       <c r="L12">
-        <v>-0.0028604909837808</v>
+        <v>-0.001988178432332</v>
       </c>
       <c r="M12">
-        <v>0.0033888190281706</v>
+        <v>0.0005719745400866</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>-1.28202878202878</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q12">
         <v>1878753.35</v>
@@ -1391,19 +1382,19 @@
         <v>5554251.07</v>
       </c>
       <c r="S12" t="s">
+        <v>48</v>
+      </c>
+      <c r="T12" t="s">
+        <v>49</v>
+      </c>
+      <c r="U12" t="s">
+        <v>50</v>
+      </c>
+      <c r="V12" t="s">
         <v>51</v>
       </c>
-      <c r="T12" t="s">
-        <v>52</v>
-      </c>
-      <c r="U12" t="s">
+      <c r="W12" t="s">
         <v>53</v>
-      </c>
-      <c r="V12" t="s">
-        <v>54</v>
-      </c>
-      <c r="W12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1414,43 +1405,43 @@
         <v>35</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>0.174072312476531</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.9830508474576271</v>
+        <v>0.934579439252336</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="K13">
-        <v>0.167531945562399</v>
+        <v>-0.0033447802197802</v>
       </c>
       <c r="L13">
-        <v>-0.12094174083252</v>
+        <v>-0.0810774871343236</v>
       </c>
       <c r="M13">
-        <v>0.374364900092964</v>
+        <v>0.109758667024678</v>
       </c>
       <c r="N13">
-        <v>11.7155206686993</v>
+        <v>-0.191130298273156</v>
       </c>
       <c r="O13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P13" t="s">
         <v>46</v>
@@ -1462,868 +1453,19 @@
         <v>5554251.07</v>
       </c>
       <c r="S13" t="s">
+        <v>48</v>
+      </c>
+      <c r="T13" t="s">
+        <v>49</v>
+      </c>
+      <c r="U13" t="s">
+        <v>50</v>
+      </c>
+      <c r="V13" t="s">
         <v>51</v>
       </c>
-      <c r="T13" t="s">
-        <v>52</v>
-      </c>
-      <c r="U13" t="s">
-        <v>53</v>
-      </c>
-      <c r="V13" t="s">
-        <v>54</v>
-      </c>
       <c r="W13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14">
-        <v>0.976689113908739</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0.458823529411765</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>1.8</v>
-      </c>
-      <c r="K14">
-        <v>0.0624375394487692</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0.124234693877551</v>
-      </c>
-      <c r="N14">
-        <v>3.46875219159829</v>
-      </c>
-      <c r="O14" t="s">
-        <v>40</v>
-      </c>
-      <c r="P14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q14">
-        <v>1878753.35</v>
-      </c>
-      <c r="R14">
-        <v>5554251.07</v>
-      </c>
-      <c r="S14" t="s">
-        <v>51</v>
-      </c>
-      <c r="T14" t="s">
-        <v>52</v>
-      </c>
-      <c r="U14" t="s">
-        <v>53</v>
-      </c>
-      <c r="V14" t="s">
-        <v>54</v>
-      </c>
-      <c r="W14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15">
-        <v>0.8608654948307189</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0.847457627118644</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>10.385</v>
-      </c>
-      <c r="K15">
-        <v>0.0341288121173338</v>
-      </c>
-      <c r="L15">
-        <v>-0.0101409128201597</v>
-      </c>
-      <c r="M15">
-        <v>0.0768789505344408</v>
-      </c>
-      <c r="N15">
-        <v>0.328635648698448</v>
-      </c>
-      <c r="O15" t="s">
-        <v>40</v>
-      </c>
-      <c r="P15" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q15">
-        <v>1878753.35</v>
-      </c>
-      <c r="R15">
-        <v>5554251.07</v>
-      </c>
-      <c r="S15" t="s">
-        <v>51</v>
-      </c>
-      <c r="T15" t="s">
-        <v>52</v>
-      </c>
-      <c r="U15" t="s">
-        <v>53</v>
-      </c>
-      <c r="V15" t="s">
-        <v>54</v>
-      </c>
-      <c r="W15" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16">
-        <v>0.997915717704827</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0.428571428571429</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0.035</v>
-      </c>
-      <c r="K16">
-        <v>-0.0009970427661509999</v>
-      </c>
-      <c r="L16">
-        <v>-0.0016014345117755</v>
-      </c>
-      <c r="M16">
-        <v>-0.000334478021978</v>
-      </c>
-      <c r="N16">
-        <v>-2.84869361757442</v>
-      </c>
-      <c r="O16" t="s">
-        <v>40</v>
-      </c>
-      <c r="P16" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q16">
-        <v>1878753.35</v>
-      </c>
-      <c r="R16">
-        <v>5554251.07</v>
-      </c>
-      <c r="S16" t="s">
-        <v>51</v>
-      </c>
-      <c r="T16" t="s">
-        <v>52</v>
-      </c>
-      <c r="U16" t="s">
-        <v>53</v>
-      </c>
-      <c r="V16" t="s">
-        <v>54</v>
-      </c>
-      <c r="W16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17">
-        <v>0.208913199452945</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0.697478991596639</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>260</v>
-      </c>
-      <c r="K17">
-        <v>5.01717032967033</v>
-      </c>
-      <c r="L17">
-        <v>-5.99680219629161</v>
-      </c>
-      <c r="M17">
-        <v>13.7902695362238</v>
-      </c>
-      <c r="N17">
-        <v>1.92968089602705</v>
-      </c>
-      <c r="O17" t="s">
-        <v>40</v>
-      </c>
-      <c r="P17" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q17">
-        <v>1878753.35</v>
-      </c>
-      <c r="R17">
-        <v>5554251.07</v>
-      </c>
-      <c r="S17" t="s">
-        <v>51</v>
-      </c>
-      <c r="T17" t="s">
-        <v>52</v>
-      </c>
-      <c r="U17" t="s">
-        <v>53</v>
-      </c>
-      <c r="V17" t="s">
-        <v>54</v>
-      </c>
-      <c r="W17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18">
-        <v>0.130347239246434</v>
-      </c>
-      <c r="G18">
-        <v>0.756756756756757</v>
-      </c>
-      <c r="H18">
-        <v>0.306306306306306</v>
-      </c>
-      <c r="I18">
-        <v>8</v>
-      </c>
-      <c r="J18">
-        <v>0.005</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18" t="s">
-        <v>40</v>
-      </c>
-      <c r="P18" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q18">
-        <v>1878753.35</v>
-      </c>
-      <c r="R18">
-        <v>5554251.07</v>
-      </c>
-      <c r="S18" t="s">
-        <v>51</v>
-      </c>
-      <c r="T18" t="s">
-        <v>52</v>
-      </c>
-      <c r="U18" t="s">
-        <v>53</v>
-      </c>
-      <c r="V18" t="s">
-        <v>54</v>
-      </c>
-      <c r="W18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19">
-        <v>0.996874169591869</v>
-      </c>
-      <c r="G19">
-        <v>0.159663865546218</v>
-      </c>
-      <c r="H19">
-        <v>0.151260504201681</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0.004</v>
-      </c>
-      <c r="K19">
-        <v>-0.0002393512450851</v>
-      </c>
-      <c r="L19">
-        <v>-0.0004224985540775</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>-5.98378112712975</v>
-      </c>
-      <c r="O19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q19">
-        <v>1878753.35</v>
-      </c>
-      <c r="R19">
-        <v>5554251.07</v>
-      </c>
-      <c r="S19" t="s">
-        <v>51</v>
-      </c>
-      <c r="T19" t="s">
-        <v>52</v>
-      </c>
-      <c r="U19" t="s">
-        <v>53</v>
-      </c>
-      <c r="V19" t="s">
-        <v>54</v>
-      </c>
-      <c r="W19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20">
-        <v>10</v>
-      </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20">
-        <v>0.6904745692361191</v>
-      </c>
-      <c r="G20">
-        <v>0.0588235294117647</v>
-      </c>
-      <c r="H20">
-        <v>0.907563025210084</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0.5580000000000001</v>
-      </c>
-      <c r="K20">
-        <v>-0.0037199077238551</v>
-      </c>
-      <c r="L20">
-        <v>-0.0191691637590795</v>
-      </c>
-      <c r="M20">
-        <v>0.0061672916913326</v>
-      </c>
-      <c r="N20">
-        <v>-0.666650129723141</v>
-      </c>
-      <c r="O20" t="s">
-        <v>40</v>
-      </c>
-      <c r="P20" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q20">
-        <v>1878753.35</v>
-      </c>
-      <c r="R20">
-        <v>5554251.07</v>
-      </c>
-      <c r="S20" t="s">
-        <v>51</v>
-      </c>
-      <c r="T20" t="s">
-        <v>52</v>
-      </c>
-      <c r="U20" t="s">
-        <v>53</v>
-      </c>
-      <c r="V20" t="s">
-        <v>54</v>
-      </c>
-      <c r="W20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21">
-        <v>0.783829841385682</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0.629310344827586</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>7.79</v>
-      </c>
-      <c r="K21">
-        <v>0.0068725093862681</v>
-      </c>
-      <c r="L21">
-        <v>-0.0071828012561145</v>
-      </c>
-      <c r="M21">
-        <v>0.0206531374914775</v>
-      </c>
-      <c r="N21">
-        <v>0.08822220008046421</v>
-      </c>
-      <c r="O21" t="s">
-        <v>40</v>
-      </c>
-      <c r="P21" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q21">
-        <v>1878753.35</v>
-      </c>
-      <c r="R21">
-        <v>5554251.07</v>
-      </c>
-      <c r="S21" t="s">
-        <v>51</v>
-      </c>
-      <c r="T21" t="s">
-        <v>52</v>
-      </c>
-      <c r="U21" t="s">
-        <v>53</v>
-      </c>
-      <c r="V21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22">
-        <v>0.613206514934889</v>
-      </c>
-      <c r="G22">
-        <v>0.0168067226890756</v>
-      </c>
-      <c r="H22">
-        <v>0.957983193277311</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0.569</v>
-      </c>
-      <c r="K22">
-        <v>-0.0015978127136021</v>
-      </c>
-      <c r="L22">
-        <v>-0.0194463944769917</v>
-      </c>
-      <c r="M22">
-        <v>0.008162182770946</v>
-      </c>
-      <c r="N22">
-        <v>-0.280810670228854</v>
-      </c>
-      <c r="O22" t="s">
-        <v>40</v>
-      </c>
-      <c r="P22" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q22">
-        <v>1878753.35</v>
-      </c>
-      <c r="R22">
-        <v>5554251.07</v>
-      </c>
-      <c r="S22" t="s">
-        <v>51</v>
-      </c>
-      <c r="T22" t="s">
-        <v>52</v>
-      </c>
-      <c r="U22" t="s">
-        <v>53</v>
-      </c>
-      <c r="V22" t="s">
-        <v>54</v>
-      </c>
-      <c r="W22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23">
-        <v>0.924565273943033</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0.764705882352941</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0.83</v>
-      </c>
-      <c r="K23">
-        <v>-0.016020712762717</v>
-      </c>
-      <c r="L23">
-        <v>-0.0364485537836663</v>
-      </c>
-      <c r="M23">
-        <v>0.0016599652157786</v>
-      </c>
-      <c r="N23">
-        <v>-1.93020635695386</v>
-      </c>
-      <c r="O23" t="s">
-        <v>40</v>
-      </c>
-      <c r="P23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q23">
-        <v>1878753.35</v>
-      </c>
-      <c r="R23">
-        <v>5554251.07</v>
-      </c>
-      <c r="S23" t="s">
-        <v>51</v>
-      </c>
-      <c r="T23" t="s">
-        <v>52</v>
-      </c>
-      <c r="U23" t="s">
-        <v>53</v>
-      </c>
-      <c r="V23" t="s">
-        <v>54</v>
-      </c>
-      <c r="W23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24">
-        <v>0.75250048495106</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0.470588235294118</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0.055</v>
-      </c>
-      <c r="K24">
-        <v>-0.0004324191002367</v>
-      </c>
-      <c r="L24">
-        <v>-0.0015084554549997</v>
-      </c>
-      <c r="M24">
-        <v>0.0006270125469239</v>
-      </c>
-      <c r="N24">
-        <v>-0.786216545885055</v>
-      </c>
-      <c r="O24" t="s">
-        <v>40</v>
-      </c>
-      <c r="P24" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q24">
-        <v>1878753.35</v>
-      </c>
-      <c r="R24">
-        <v>5554251.07</v>
-      </c>
-      <c r="S24" t="s">
-        <v>51</v>
-      </c>
-      <c r="T24" t="s">
-        <v>52</v>
-      </c>
-      <c r="U24" t="s">
-        <v>53</v>
-      </c>
-      <c r="V24" t="s">
-        <v>54</v>
-      </c>
-      <c r="W24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25">
-        <v>0.510418224430734</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0.92436974789916</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>1.75</v>
-      </c>
-      <c r="K25">
-        <v>-0.0066895604395604</v>
-      </c>
-      <c r="L25">
-        <v>-0.0726962783134542</v>
-      </c>
-      <c r="M25">
-        <v>0.0721258170980079</v>
-      </c>
-      <c r="N25">
-        <v>-0.382260596546311</v>
-      </c>
-      <c r="O25" t="s">
-        <v>40</v>
-      </c>
-      <c r="P25" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q25">
-        <v>1878753.35</v>
-      </c>
-      <c r="R25">
-        <v>5554251.07</v>
-      </c>
-      <c r="S25" t="s">
-        <v>51</v>
-      </c>
-      <c r="T25" t="s">
-        <v>52</v>
-      </c>
-      <c r="U25" t="s">
-        <v>53</v>
-      </c>
-      <c r="V25" t="s">
-        <v>54</v>
-      </c>
-      <c r="W25" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
